--- a/good_output_month_saleonly.xlsx
+++ b/good_output_month_saleonly.xlsx
@@ -19321,7 +19321,7 @@
         <v>0.4799999999999999</v>
       </c>
       <c r="CK25" t="n">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="CL25" t="n">
         <v>0</v>
